--- a/src/main/resources/TestData/ComplaintRegistration.xlsx
+++ b/src/main/resources/TestData/ComplaintRegistration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Space\BimaBharosaPortal\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishekg\IntelliJ Workspace\BimaBharosaPortal\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7250" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CompRegisterAgainstUnRegEntity" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="CompRegisterAgainstInsCompany" sheetId="5" r:id="rId4"/>
     <sheet name="CompRegTestData" sheetId="7" r:id="rId5"/>
     <sheet name="NewCompRegister" sheetId="8" r:id="rId6"/>
-    <sheet name="Call_Center" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t>Abhishek Gupta</t>
   </si>
@@ -150,31 +149,13 @@
   </si>
   <si>
     <t>PL</t>
-  </si>
-  <si>
-    <t>Complaint Number</t>
-  </si>
-  <si>
-    <t>Entity Reference Number</t>
-  </si>
-  <si>
-    <t>06-24-000615</t>
-  </si>
-  <si>
-    <t>HDFCG005915</t>
-  </si>
-  <si>
-    <t>Complainant Name</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,14 +167,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,11 +210,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,11 +241,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,7 +756,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>7777777777</v>
+        <v>4444444444</v>
       </c>
       <c r="C2" s="9">
         <v>400097</v>
@@ -1104,7 +1073,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,61 +1142,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>121231</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8691959368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>